--- a/expense/模型组/2024-04-16/汇总表.xlsx
+++ b/expense/模型组/2024-04-16/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>收款人</t>
   </si>
   <si>
-    <t>支出单号</t>
-  </si>
-  <si>
     <t>状态</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>赵科磊</t>
+  </si>
+  <si>
+    <t>收款人已确认</t>
   </si>
   <si>
     <t>差价</t>
@@ -87,22 +87,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -110,7 +110,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -118,28 +118,36 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -147,7 +155,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -155,15 +163,30 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -171,83 +194,74 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -255,22 +269,8 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -289,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,17 +524,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,11 +568,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,32 +613,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -626,152 +626,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,7 +805,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="48" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -820,10 +820,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -847,60 +847,66 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1184,15 +1190,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="5.33333333333333" customWidth="1"/>
     <col min="2" max="2" width="10.8916666666667" style="1" customWidth="1"/>
@@ -1207,12 +1213,11 @@
     <col min="11" max="11" width="9.33333333333333" style="4" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" customWidth="1"/>
     <col min="13" max="13" width="7" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.775" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.33333333333333" style="3" customWidth="1"/>
-    <col min="16" max="30" width="9" style="3"/>
+    <col min="14" max="14" width="12.875" style="3" customWidth="1"/>
+    <col min="15" max="29" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1255,11 +1260,8 @@
       <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" ht="1.05" customHeight="1" spans="3:14">
+    <row r="2" ht="1.05" customHeight="1" spans="3:12">
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1270,21 +1272,20 @@
       <c r="J2" s="19"/>
       <c r="K2" s="14"/>
       <c r="L2" s="20"/>
-      <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:14">
       <c r="A3" s="8">
         <f t="shared" ref="A3:A4" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>4</v>
@@ -1293,7 +1294,7 @@
         <v>660</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>7</v>
@@ -1309,19 +1310,20 @@
       </c>
       <c r="L3" s="23"/>
       <c r="M3" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="17" t="s">
@@ -1331,7 +1333,7 @@
         <v>38</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="21"/>
@@ -1341,24 +1343,24 @@
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="23"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:N3">
+  <conditionalFormatting sqref="A3:M3">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4 L4 C4 E4:G4 I4:J4 N4">
+  <conditionalFormatting sqref="A4 L4 C4 E4:G4 I4:J4">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>

--- a/expense/模型组/2024-04-16/汇总表.xlsx
+++ b/expense/模型组/2024-04-16/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>编号</t>
   </si>
   <si>
-    <t>组别</t>
-  </si>
-  <si>
     <t>日期(小注)</t>
   </si>
   <si>
@@ -34,9 +31,6 @@
     <t>订单</t>
   </si>
   <si>
-    <t>金额</t>
-  </si>
-  <si>
     <t>支付记录</t>
   </si>
   <si>
@@ -52,25 +46,16 @@
     <t>总额</t>
   </si>
   <si>
-    <t>出入库</t>
-  </si>
-  <si>
     <t>收款人</t>
   </si>
   <si>
     <t>状态</t>
   </si>
   <si>
-    <t>模型组</t>
-  </si>
-  <si>
     <t>2024-04-16</t>
   </si>
   <si>
     <t>智能车驱动学习主板套件</t>
-  </si>
-  <si>
-    <t>付款记录</t>
   </si>
   <si>
     <t>赵科磊</t>
@@ -87,8 +72,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -131,6 +116,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -139,47 +216,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,86 +230,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,37 +280,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,139 +406,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,11 +511,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,6 +523,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,30 +547,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,11 +581,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,170 +611,167 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,16 +781,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -818,30 +818,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1190,190 +1166,240 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N4"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.33333333333333" customWidth="1"/>
-    <col min="2" max="2" width="10.8916666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.4416666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.4416666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.66666666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.33333333333333" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.775" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.33333333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="7.33333333333333" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.33333333333333" style="4" customWidth="1"/>
-    <col min="12" max="12" width="9" style="2" customWidth="1"/>
-    <col min="13" max="13" width="7" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="3" customWidth="1"/>
-    <col min="15" max="29" width="9" style="3"/>
+    <col min="2" max="2" width="12.4416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.66666666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="5.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33333333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.33333333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.875" style="2" customWidth="1"/>
+    <col min="12" max="26" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" ht="1.05" customHeight="1" spans="3:12">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="20"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="8">
+    </row>
+    <row r="2" ht="1.05" customHeight="1" spans="2:9">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7">
         <f t="shared" ref="A3:A4" si="0">ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13">
+        <v>660</v>
+      </c>
+      <c r="F3" s="14">
+        <v>703</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16">
+        <f>IF(SUM(E3:E4)&lt;F3,SUM(E3:E4),F3)</f>
+        <v>698</v>
+      </c>
+      <c r="I3" s="20">
+        <f>SUM(H3)</f>
+        <v>698</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="15">
-        <v>660</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22">
-        <f>SUM(F3)</f>
-        <v>660</v>
-      </c>
-      <c r="K3" s="15">
-        <f>SUM(F3:F4)</f>
-        <v>698</v>
-      </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="8">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="7">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="15">
+      <c r="E4" s="13">
         <v>38</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22">
-        <f>SUM(F4)</f>
-        <v>38</v>
-      </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="5:6">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="5:6">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="5:6">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="5:6">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="5:6">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="5:6">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="5:6">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="5:6">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:M3">
+  <conditionalFormatting sqref="A3:J3">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4 L4 C4 E4:G4 I4:J4">
+  <conditionalFormatting sqref="A4:B4 D4:E4 G4">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="智能车驱动学习主板套件"/>
-    <hyperlink ref="E3" r:id="rId2" display="订单"/>
-    <hyperlink ref="G3" r:id="rId3" display="付款记录"/>
-    <hyperlink ref="H3" r:id="rId4" display="发票"/>
-    <hyperlink ref="D4" r:id="rId1"/>
-    <hyperlink ref="H4" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5" display="差价"/>
-    <hyperlink ref="G4" r:id="rId6" display="付款记录"/>
+    <hyperlink ref="C3" r:id="rId1" display="智能车驱动学习主板套件"/>
+    <hyperlink ref="D3" r:id="rId2" display="订单"/>
+    <hyperlink ref="E3" r:id="rId3" display="660"/>
+    <hyperlink ref="F3" r:id="rId4" display="703"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5" display="差价"/>
+    <hyperlink ref="E4" r:id="rId6" display="38"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/模型组/2024-04-16/汇总表.xlsx
+++ b/expense/模型组/2024-04-16/汇总表.xlsx
@@ -61,7 +61,7 @@
     <t>赵科磊</t>
   </si>
   <si>
-    <t>收款人已确认</t>
+    <t>队长已确认全部收到</t>
   </si>
   <si>
     <t>差价</t>
@@ -74,8 +74,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -122,49 +122,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,6 +160,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -186,74 +185,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,181 +280,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,16 +522,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,17 +572,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,21 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -611,152 +611,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,9 +799,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -824,13 +821,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1171,7 +1168,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1214,7 +1211,7 @@
       <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1232,7 +1229,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="19"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="7">
@@ -1251,22 +1248,22 @@
       <c r="E3" s="13">
         <v>660</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>703</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16">
+      <c r="G3" s="14"/>
+      <c r="H3" s="15">
         <f>IF(SUM(E3:E4)&lt;F3,SUM(E3:E4),F3)</f>
         <v>698</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <f>SUM(H3)</f>
         <v>698</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="21" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1285,12 +1282,12 @@
       <c r="E4" s="13">
         <v>38</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="5:6">
       <c r="E5" s="4"/>
